--- a/biology/Botanique/Zanthoxylum_pentandrum/Zanthoxylum_pentandrum.xlsx
+++ b/biology/Botanique/Zanthoxylum_pentandrum/Zanthoxylum_pentandrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum pentandrum est une espèce de plantes à fleurs de la famille des Rutaceae (famille des agrumes). C'est un arbre néotropical.
-En Guyane, il est connu sous les noms de Bois zépine, Bois piquant, Zépini, Lépini (créole), Sala'iu (Wayãpi), Wahinru (Palikur), ou Tamanqueira (portugais)[2]. Au Venezuela, on le nomme Boxúo negro ou Mapurito amarillo[3]. Au Suriname, les Saramaka l'appellent He[4] ou He rutu[5]. Les Yanomami l'appellent naharã hi[6].
+En Guyane, il est connu sous les noms de Bois zépine, Bois piquant, Zépini, Lépini (créole), Sala'iu (Wayãpi), Wahinru (Palikur), ou Tamanqueira (portugais). Au Venezuela, on le nomme Boxúo negro ou Mapurito amarillo. Au Suriname, les Saramaka l'appellent He ou He rutu. Les Yanomami l'appellent naharã hi.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zanthoxylum pentandrum est un arbre atteignant 20 m reconnaissable à ses grosses épines courtes et coniques sur le tronc.
 Les feuilles sont alternes, glabres, composées pennées, à (3)-5-(7) paires de folioles.
@@ -524,9 +538,9 @@
 Les 5 sépales sont staminés, imbriqués à la base, et longs de 0,5-0,6 mm.
 Les 5 étamines ont des anthères longues de 0,4 à 0,5 mm.
 Chaque fleur compte 3(5) carpelles (aux styles courts incurvés), dont 1 à 3(5) se développe finalement en méricarpe libre, sessile.
-Le fruit est une sorte de follicule à 3(5) méricarpes roussâtres bivalves contenant une graine noire[7],[3].
-Le bois de Zanthoxylum pentandrum a une densité de 0,66 à 0,65[8],[9].
-La micro-structure de son bois carbonisé a été étudiée[10],[11].
+Le fruit est une sorte de follicule à 3(5) méricarpes roussâtres bivalves contenant une graine noire,.
+Le bois de Zanthoxylum pentandrum a une densité de 0,66 à 0,65,.
+La micro-structure de son bois carbonisé a été étudiée,.
 </t>
         </is>
       </c>
@@ -555,9 +569,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zanthoxylum pentandrum est présent des Antilles, au Brésil en passant par Trinidad, le Venezuela, le Guyana, le Suriname, et la Guyane[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zanthoxylum pentandrum est présent des Antilles, au Brésil en passant par Trinidad, le Venezuela, le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -586,9 +602,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zanthoxylum pentandrum pousse dans les recrus forestiers et les forêts sempervirentes de plaine entre 100–400 m d'altitude[2],[3],[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zanthoxylum pentandrum pousse dans les recrus forestiers et les forêts sempervirentes de plaine entre 100–400 m d'altitude.
 </t>
         </is>
       </c>
@@ -617,12 +635,14 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les Créoles préparent un tonique amer, réputé antipaludiques et antiblennorragiques, en macérant l'écorce de Zanthoxylum rhoifolium dans du vin ou du rhum. Zanthoxylum rhoifolium est aussi employé pour soigner les éruptions de boutons sur les jambes des enfants et les chancres vénériens[2].
-Zanthoxylum pentandrum est employé comme analgésique dentaire chez les Wayãpi de Guyane[2] et les Wayãpi et Yanomami du Brésil[13],[14] : l'écorce très amère est alors mastiquée, ou râpée fin et tamponnée sur les caries.
-Au Suriname, les Saramaka considèrent Zanthoxylum pentandrum comme une plante magique et est employée pour les rituels Winti (la religion afro-surinamaise Winti est basée sur la possession par des êtres surnaturels, des rituels et des bains aux herbes : s'ils sont négligés ou ne reçoivent pas d'offrandes régulières, les esprits sont censés causer des maladies et la malchance)[4],[15].
-Les propriétés antipaludéennes de Zanthoxylum pentandrum ont été identifiées[16] et testées[17],[18].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les Créoles préparent un tonique amer, réputé antipaludiques et antiblennorragiques, en macérant l'écorce de Zanthoxylum rhoifolium dans du vin ou du rhum. Zanthoxylum rhoifolium est aussi employé pour soigner les éruptions de boutons sur les jambes des enfants et les chancres vénériens.
+Zanthoxylum pentandrum est employé comme analgésique dentaire chez les Wayãpi de Guyane et les Wayãpi et Yanomami du Brésil, : l'écorce très amère est alors mastiquée, ou râpée fin et tamponnée sur les caries.
+Au Suriname, les Saramaka considèrent Zanthoxylum pentandrum comme une plante magique et est employée pour les rituels Winti (la religion afro-surinamaise Winti est basée sur la possession par des êtres surnaturels, des rituels et des bains aux herbes : s'ils sont négligés ou ne reçoivent pas d'offrandes régulières, les esprits sont censés causer des maladies et la malchance),.
+Les propriétés antipaludéennes de Zanthoxylum pentandrum ont été identifiées et testées,.
 </t>
         </is>
       </c>
@@ -651,10 +671,12 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Zanthoxylum pentandrum contient du lupéol et des alcaloïdes (berbérine et magnoflorine notamment)[2].
-On trouve de la magnoflorine, de la choline et un autre alcaloïde dans l'écorce du tronc[19].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Zanthoxylum pentandrum contient du lupéol et des alcaloïdes (berbérine et magnoflorine notamment).
+On trouve de la magnoflorine, de la choline et un autre alcaloïde dans l'écorce du tronc.
 </t>
         </is>
       </c>
@@ -683,9 +705,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[20] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « FAGARA pentandra. (Tabula 30.)
 CAL. Perianthium monophyllum, quinquedentatum, denticulis ſubrotundis ; ſquamulæ binæ ant ternæ ad baſim calicis.
 COR. Petala quinque, alba, ſubrotunda, concava, diſco inſerta.
